--- a/documentacion/Pert/PorTarea/pert_estimaciones_por_Tareas.xlsx
+++ b/documentacion/Pert/PorTarea/pert_estimaciones_por_Tareas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaston\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C338C606-17CC-404E-926F-C4A79211A1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1A549F-9610-4972-B528-F06510EBA2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Tarea</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,9 +552,10 @@
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,8 +577,11 @@
       <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -599,7 +606,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -624,7 +631,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -649,7 +656,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -674,7 +681,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -699,7 +706,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -724,7 +731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -749,7 +756,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -774,7 +781,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -799,7 +806,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -824,7 +831,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -849,7 +856,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -874,7 +881,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -899,7 +906,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -924,7 +931,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -949,7 +956,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -974,7 +981,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -999,7 +1006,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1024,7 +1031,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1047,6 +1054,23 @@
       <c r="G20">
         <f t="shared" si="1"/>
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22">
+        <f>SUM(F2:F20)</f>
+        <v>43.833333333333321</v>
+      </c>
+      <c r="G22">
+        <f>SUM(G2:G20)</f>
+        <v>8.5</v>
+      </c>
+      <c r="H22">
+        <f>SUM(F22:G22)</f>
+        <v>52.333333333333321</v>
       </c>
     </row>
   </sheetData>
